--- a/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -91,19 +91,28 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>c21-32</t>
-  </si>
-  <si>
-    <t>A b c communication</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>Galaxy Mobile</t>
-  </si>
-  <si>
-    <t>28.12.2021</t>
+    <t>(c21-32)</t>
+  </si>
+  <si>
+    <t>Zilani mobile</t>
+  </si>
+  <si>
+    <t>(c25s-128)</t>
+  </si>
+  <si>
+    <t>C D sound</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>Tuhin mobile</t>
+  </si>
+  <si>
+    <t>11.01.2022</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,19 +650,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>868529042058791</v>
+        <v>869092056187179</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -662,19 +671,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>867623054612974</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4">
-        <v>869092051496450</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -682,11 +691,21 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>861627040681270</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>S.N</t>
   </si>
@@ -91,28 +91,13 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>(c21-32)</t>
-  </si>
-  <si>
-    <t>Zilani mobile</t>
-  </si>
-  <si>
-    <t>(c25s-128)</t>
-  </si>
-  <si>
-    <t>C D sound</t>
-  </si>
-  <si>
-    <t>7i</t>
-  </si>
-  <si>
-    <t>Tuhin mobile</t>
-  </si>
-  <si>
-    <t>11.01.2022</t>
+    <t>Hello Natore</t>
+  </si>
+  <si>
+    <t>C25s/64</t>
+  </si>
+  <si>
+    <t>CD Sound</t>
   </si>
 </sst>
 </file>
@@ -570,7 +555,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,20 +635,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>869092056187179</v>
+        <v>869092050430054</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,20 +654,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
-        <v>867623054612974</v>
+        <v>867623050135079</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,30 +673,36 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
-        <v>861627040681270</v>
+        <v>869694050377472</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>869092053098718</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>

--- a/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/2022/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -91,13 +91,28 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>Hello Natore</t>
-  </si>
-  <si>
-    <t>C25s/64</t>
-  </si>
-  <si>
-    <t>CD Sound</t>
+    <t>Desh mobile</t>
+  </si>
+  <si>
+    <t>(c25-64)</t>
+  </si>
+  <si>
+    <t>(c25s-128)</t>
+  </si>
+  <si>
+    <t>C d sound</t>
+  </si>
+  <si>
+    <t>(c21-64)</t>
+  </si>
+  <si>
+    <t>S k mobile</t>
+  </si>
+  <si>
+    <t>Sikreeti times</t>
+  </si>
+  <si>
+    <t>02.02.2022</t>
   </si>
 </sst>
 </file>
@@ -554,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,15 +653,17 @@
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>869092050430054</v>
+        <v>869694050396035</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,18 +671,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>867623050135079</v>
+        <v>867623054612974</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,18 +692,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
-        <v>869694050377472</v>
+        <v>864623052027939</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,18 +713,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
-        <v>869092053098718</v>
+        <v>869092050277570</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
